--- a/biology/Botanique/Magnolia_fordiana/Magnolia_fordiana.xlsx
+++ b/biology/Botanique/Magnolia_fordiana/Magnolia_fordiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia fordiana est une espèce d'arbres de la famille des Magnoliaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbre ou arbuste persistant  pouvant atteindre 20 mètres de haut, avec des fleurs blanches proches du magnolias ou des nénuphars, et des fruits bruns.  Il peut résister à des températures de l'ordre de -10°C.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre est originaire du sud de la Chine, où il vit dans des forêts de montagne jusqu'à 1 200 m d'altitude.
 </t>
@@ -573,23 +589,25 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 décembre 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 décembre 2013) :
 Magnolia fordiana (Oliv.) Hu (1924)
 variété Magnolia fordiana var. calcarea (X.H.Song) V.S.Kumar (2006)
 variété Magnolia fordiana var. fordiana
 variété Magnolia fordiana var. forrestii (W.W.Sm. ex Dandy) V.S.Kumar (2006)
 variété Magnolia fordiana var. hainanensis (Dandy) Noot. (2008)
-Selon NCBI  (31 décembre 2013)[3] :
+Selon NCBI  (31 décembre 2013) :
 variété Magnolia fordiana var. fordiana
 variété Manglietia fordiana var. hainanensis
-Selon The Plant List            (31 décembre 2013)[4] :
+Selon The Plant List            (31 décembre 2013) :
 variété Magnolia fordiana var. calcarea (X.H.Song) V.S.Kumar
 variété Magnolia fordiana var. fordiana
 variété Magnolia fordiana var. forrestii (W.W.Sm. ex Dandy) V.S.Kumar
 variété Magnolia fordiana var. hainanensis (Dandy) ined.
-Selon Tropicos                                           (31 décembre 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (31 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Magnolia fordiana var. calcarea (X.H. Song) V.S. Kumar
 variété Magnolia fordiana var. fordiana
 variété Magnolia fordiana var. forrestii (W.W. Sm. ex Dandy) V.S. Kumar
